--- a/public/uploads/products.xlsx
+++ b/public/uploads/products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\msx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC59CCD-7929-48C7-95C9-DE86D68CAA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99DA274-D043-4400-BB9F-153A6A21D418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="13245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icecreams" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="butter" sheetId="4" r:id="rId4"/>
     <sheet name="yorghut" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
   <si>
     <t>barcodeNumber</t>
   </si>
@@ -46,9 +43,6 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>filename</t>
-  </si>
-  <si>
     <t>rate</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>yorghut</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>butter</t>
   </si>
   <si>
@@ -176,6 +167,18 @@
   </si>
   <si>
     <t>icecream</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>rcvdQuantity</t>
+  </si>
+  <si>
+    <t>openingQuantity</t>
+  </si>
+  <si>
+    <t>unitCases</t>
   </si>
 </sst>
 </file>
@@ -349,27 +352,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ICECREAMS"/>
-      <sheetName val="CHEESE"/>
-      <sheetName val="FISH"/>
-      <sheetName val="BUTTER"/>
-      <sheetName val="YORGHUT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,11 +629,14 @@
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -674,24 +659,33 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>6205901173769</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -700,24 +694,33 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>6205901134593</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -726,24 +729,33 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>6205901134210</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -752,24 +764,33 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>6205901174513</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -778,24 +799,33 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>6205901135255</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -804,24 +834,33 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>9202114304123</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>43</v>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -830,24 +869,33 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>9202114307872</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>43</v>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -856,25 +904,34 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
   </sheetData>
@@ -885,10 +942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C37444-147E-4353-80D8-F0872FF68687}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,13 +954,15 @@
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,24 +985,33 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>9202114280038</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -952,24 +1020,33 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>9202114308022</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -978,24 +1055,33 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>6205901136061</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1004,24 +1090,33 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>9202114300071</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1030,24 +1125,33 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>9202114299801</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1056,24 +1160,33 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>9202114299818</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>43</v>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1082,24 +1195,33 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>9202114279223</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>43</v>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1108,6 +1230,15 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
     </row>
@@ -1118,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B211679-5351-412E-A172-A8E9E0213B0B}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,13 +1261,15 @@
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1159,24 +1292,33 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>6205901173639</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1185,24 +1327,33 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>6205901135545</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1211,24 +1362,33 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>6205901173738</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1237,24 +1397,33 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>6205901173714</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1263,24 +1432,33 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>6205901135125</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1289,6 +1467,15 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
     </row>
@@ -1299,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC602552-62C0-466C-8E3C-02975A2D9297}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,11 +1497,14 @@
     <col min="1" max="1" width="24.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1337,24 +1527,33 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>6205901134210</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1363,24 +1562,33 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>6205901174582</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1389,24 +1597,33 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>6205901134739</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1415,24 +1632,33 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>6205901136023</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1441,6 +1667,15 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
     </row>
@@ -1451,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D1A213-189C-4589-B3EF-508387C6540D}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,11 +1698,13 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1490,24 +1727,33 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>6205901135989</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1516,24 +1762,33 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>9202114279735</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1542,24 +1797,33 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>6205901134531</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1568,24 +1832,33 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>6205901133923</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1594,24 +1867,33 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>6205901135897</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1620,24 +1902,33 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6205901135552</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>43</v>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1646,24 +1937,33 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6205901174070</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>43</v>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1672,24 +1972,33 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>9202114305052</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>43</v>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1698,24 +2007,33 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9202114298682</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>43</v>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1724,24 +2042,33 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>6205901174001</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>43</v>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1750,24 +2077,33 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>6205901135439</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>43</v>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1776,6 +2112,15 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
     </row>
